--- a/xuping/业务金额核对2019-05-09.xlsx
+++ b/xuping/业务金额核对2019-05-09.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="订单表数据" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="测试数据" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -372,7 +372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D405"/>
+  <dimension ref="A1:D408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,83 +411,83 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>010031905070000000658554</t>
+          <t>010031905270000014860955</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1100</v>
+        <v>1584</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>金金</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>43592.67997685185</v>
+        <v>43612.70636574074</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>010031904240000002654302</t>
+          <t>010031905270000014760816</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1100</v>
+        <v>1584</v>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>老板</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>43579.63576388889</v>
+        <v>43612.70456018519</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>010031904150000006762663</t>
+          <t>010031905270000014660514</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1144</v>
+        <v>2167</v>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>老板</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>43570.73282407408</v>
+        <v>43612.70244212963</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>010031904150000005154913</t>
+          <t>010031905070000000658554</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>1144</v>
+        <v>1100</v>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>老板</t>
+          <t>金金</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>43570.63674768519</v>
+        <v>43592.67997685185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>010031904150000002842046</t>
+          <t>010031904240000002654302</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>1144</v>
+        <v>1100</v>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
@@ -495,143 +495,143 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>43570.4886574074</v>
+        <v>43579.63576388889</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>010031904150000001939533</t>
+          <t>010031904150000006762663</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>1100</v>
+        <v>1144</v>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>张童</t>
+          <t>老板</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>43570.45907407408</v>
+        <v>43570.73282407408</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>010031904150000001638496</t>
+          <t>010031904150000005154913</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1700</v>
+        <v>1144</v>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>zzw</t>
+          <t>老板</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>43570.66778935185</v>
+        <v>43570.63674768519</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>010031904150000001438271</t>
+          <t>010031904150000002842046</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>1126</v>
+        <v>1144</v>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>zzw</t>
+          <t>老板</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>43570.66660879629</v>
+        <v>43570.4886574074</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>010031904150000000937876</t>
+          <t>010031904150000001939533</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>1729</v>
+        <v>1100</v>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>zzw</t>
+          <t>张童</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>43570.66415509259</v>
+        <v>43570.45907407408</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>010031904120000002259144</t>
+          <t>010031904150000001638496</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>1155</v>
+        <v>1700</v>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>张童</t>
+          <t>zzw</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>43570.42002314814</v>
+        <v>43570.66778935185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>010031904120000001454351</t>
+          <t>010031904150000001438271</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>1155</v>
+        <v>1126</v>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>张童</t>
+          <t>zzw</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>43567.6296412037</v>
+        <v>43570.66660879629</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>010031904120000001353631</t>
+          <t>010031904150000000937876</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1133</v>
+        <v>1729</v>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>张童</t>
+          <t>zzw</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>43567.62688657407</v>
+        <v>43570.66415509259</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>010031904110000004853977</t>
+          <t>010031904120000002259144</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>1133</v>
+        <v>1155</v>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
@@ -639,17 +639,17 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>43566.64439814815</v>
+        <v>43570.42002314814</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>010031904110000001538904</t>
+          <t>010031904120000001454351</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>1133</v>
+        <v>1155</v>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
@@ -657,13 +657,13 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>43566.45070601852</v>
+        <v>43567.6296412037</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>010031904110000001338629</t>
+          <t>010031904120000001353631</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>43566.44784722223</v>
+        <v>43567.62688657407</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>010031904100000003264026</t>
+          <t>010031904110000004853977</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>43565.74184027778</v>
+        <v>43566.64439814815</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>010031904100000002862186</t>
+          <t>010031904110000001538904</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>43565.72082175926</v>
+        <v>43566.45070601852</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>010031904090000006262862</t>
+          <t>010031904110000001338629</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>43564.72892361111</v>
+        <v>43566.44784722223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>010031904090000006161456</t>
+          <t>010031904100000003264026</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
@@ -747,17 +747,17 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>43564.71886574074</v>
+        <v>43565.74184027778</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>010031904080000001860232</t>
+          <t>010031904100000002862186</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>1100</v>
+        <v>1133</v>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
@@ -765,17 +765,17 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>43563.69788194444</v>
+        <v>43565.72082175926</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>010031904080000001158524</t>
+          <t>010031904090000006262862</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>1100</v>
+        <v>1133</v>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
@@ -783,31 +783,31 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>43563.69140046297</v>
+        <v>43564.72892361111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>010031904020000004358836</t>
+          <t>010031904090000006161456</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>1100</v>
+        <v>1133</v>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>zzw</t>
+          <t>张童</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>43557.6827662037</v>
+        <v>43564.71886574074</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>010031904010000000961234</t>
+          <t>010031904080000001860232</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
@@ -819,13 +819,13 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>43556.70917824074</v>
+        <v>43563.69788194444</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>010031904010000000859868</t>
+          <t>010031904080000001158524</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
@@ -837,35 +837,35 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>43556.69461805555</v>
+        <v>43563.69140046297</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>010031903290000002561347</t>
+          <t>010031904020000004358836</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>3185</v>
+        <v>1100</v>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>张童</t>
+          <t>zzw</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>43553.72157407407</v>
+        <v>43557.6827662037</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>010031903270000007863185</t>
+          <t>010031904010000000961234</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>1751</v>
+        <v>1100</v>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
@@ -873,53 +873,53 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>43551.73298611111</v>
+        <v>43556.70917824074</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>010031903260000007956514</t>
+          <t>010031904010000000859868</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>1645</v>
+        <v>1100</v>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>cyytest</t>
+          <t>张童</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>43550.6590162037</v>
+        <v>43556.69461805555</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>010031903250000007163057</t>
+          <t>010031903290000002561347</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>2163</v>
+        <v>3185</v>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>企业管理员</t>
+          <t>张童</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>43549.73644675926</v>
+        <v>43553.72157407407</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>010031903250000002039933</t>
+          <t>010031903270000007863185</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>1100</v>
+        <v>1751</v>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
@@ -927,53 +927,53 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>43549.46372685185</v>
+        <v>43551.73298611111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>010031903250000001138949</t>
+          <t>010031903260000007956514</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>1100</v>
+        <v>1645</v>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>张童</t>
+          <t>cyytest</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>43549.45123842593</v>
+        <v>43550.6590162037</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>010031903250000001038681</t>
+          <t>010031903250000007163057</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>1100</v>
+        <v>2163</v>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>张童</t>
+          <t>企业管理员</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>43549.44994212963</v>
+        <v>43549.73644675926</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>010031903220000003855083</t>
+          <t>010031903250000002039933</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>1133</v>
+        <v>1100</v>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
@@ -981,17 +981,17 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>43546.64171296296</v>
+        <v>43549.46372685185</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>010031903210000004856021</t>
+          <t>010031903250000001138949</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>1133</v>
+        <v>1100</v>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>43545.65971064815</v>
+        <v>43549.45123842593</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>010031903200000005972278</t>
+          <t>010031903250000001038681</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
@@ -1013,21 +1013,21 @@
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>张童</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>43544.83848379629</v>
+        <v>43549.44994212963</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>010031903200000005058293</t>
+          <t>010031903220000003855083</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>11052</v>
+        <v>1133</v>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
@@ -1035,17 +1035,17 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>43544.79967592593</v>
+        <v>43546.64171296296</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>010031903200000002943310</t>
+          <t>010031903210000004856021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>11848</v>
+        <v>1133</v>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>43544.65302083334</v>
+        <v>43545.65971064815</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>010031903200000001639422</t>
+          <t>010031903200000005972278</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
@@ -1067,53 +1067,53 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>张童</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>43544.46916666667</v>
+        <v>43544.83848379629</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>010031903180000002461238</t>
+          <t>010031903200000005058293</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>3752</v>
+        <v>11052</v>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>张童</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>43542.7343287037</v>
+        <v>43544.79967592593</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>010031903180000001759290</t>
+          <t>010031903200000002943310</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>1100</v>
+        <v>11848</v>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>张童</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>43542.68822916667</v>
+        <v>43544.65302083334</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>010031903180000001453515</t>
+          <t>010031903200000001639422</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
@@ -1121,147 +1121,147 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>张童</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>43542.62179398148</v>
+        <v>43544.46916666667</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>010031903150000003861422</t>
+          <t>010031903180000002461238</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>1100</v>
+        <v>3752</v>
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>陈凯丽</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>43539.71299768519</v>
+        <v>43542.7343287037</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>010031812250000001441413</t>
+          <t>010031903180000001759290</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>1380</v>
+        <v>1100</v>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>cai000</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>43459.49365740741</v>
+        <v>43542.68822916667</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>010031812190000000876150</t>
+          <t>010031903180000001453515</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>5070</v>
+        <v>1100</v>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>cai000</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>43453.8852662037</v>
+        <v>43542.62179398148</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>010031812190000000459774</t>
+          <t>010031903150000003861422</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>1014</v>
+        <v>1100</v>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>cai000</t>
+          <t>陈凯丽</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>43453.85243055555</v>
+        <v>43539.71299768519</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>010031812170000071668452</t>
+          <t>010031812250000001441413</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>3251</v>
+        <v>1380</v>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>张童</t>
+          <t>cai000</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>43451.81206018518</v>
+        <v>43459.49365740741</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>010031812050000011762194</t>
+          <t>010031812190000000876150</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>1030</v>
+        <v>5070</v>
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>张童</t>
+          <t>cai000</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>43439.72510416667</v>
+        <v>43453.8852662037</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>010031812050000005453945</t>
+          <t>010031812190000000459774</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>1030</v>
+        <v>1014</v>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>张童</t>
+          <t>cai000</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>43439.66891203704</v>
+        <v>43453.85243055555</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>010031811280000006662553</t>
+          <t>010031812170000071668452</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>5078</v>
+        <v>3251</v>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
@@ -1269,31 +1269,31 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>43432.74510416666</v>
+        <v>43451.81206018518</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>010031811120000006760779</t>
+          <t>010031812050000011762194</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>1751</v>
+        <v>1030</v>
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>老板333</t>
+          <t>张童</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>43416.70978009259</v>
+        <v>43439.72510416667</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>010031811120000001741013</t>
+          <t>010031812050000005453945</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
@@ -1301,71 +1301,71 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>老板333</t>
+          <t>张童</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>43416.48565972222</v>
+        <v>43439.66891203704</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>010031811060000000237524</t>
+          <t>010031811280000006662553</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>1000</v>
+        <v>5078</v>
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>老板</t>
+          <t>张童</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>43410.43651620371</v>
+        <v>43432.74510416666</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>010031811050000006054054</t>
+          <t>010031811120000006760779</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>2128</v>
+        <v>1751</v>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>老板333</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>43409.62626157407</v>
+        <v>43416.70978009259</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>010031811050000005753890</t>
+          <t>010031811120000001741013</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>1200</v>
+        <v>1030</v>
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>老板333</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>43409.62503472222</v>
+        <v>43416.48565972222</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>010031811050000000537489</t>
+          <t>010031811060000000237524</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
@@ -1377,49 +1377,49 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>43409.43857638889</v>
+        <v>43410.43651620371</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>010031811050000000336734</t>
+          <t>010031811050000006054054</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>1000</v>
+        <v>2128</v>
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>老板</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>43409.42601851852</v>
+        <v>43409.62626157407</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>010031811020000007463997</t>
+          <t>010031811050000005753890</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>老板</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>43406.74172453704</v>
+        <v>43409.62503472222</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>010031811020000007363207</t>
+          <t>010031811050000000537489</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
@@ -1431,71 +1431,71 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>43406.73267361111</v>
+        <v>43409.43857638889</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>010031811010000015070264</t>
+          <t>010031811050000000336734</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>1570</v>
+        <v>1000</v>
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>测试II</t>
+          <t>老板</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>43405.81430555556</v>
+        <v>43409.42601851852</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>010031811010000012568026</t>
+          <t>010031811020000007463997</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>7766</v>
+        <v>1000</v>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>测试II</t>
+          <t>老板</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>43405.79645833333</v>
+        <v>43406.74172453704</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>010031811010000012267522</t>
+          <t>010031811020000007363207</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>3300</v>
+        <v>1000</v>
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>测试II</t>
+          <t>老板</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>43405.7854050926</v>
+        <v>43406.73267361111</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>010031811010000012166911</t>
+          <t>010031811010000015070264</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>3338</v>
+        <v>1570</v>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
@@ -1503,13 +1503,13 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>43405.78</v>
+        <v>43405.81430555556</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>010031811010000012066313</t>
+          <t>010031811010000012568026</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
@@ -1521,17 +1521,17 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>43405.7715625</v>
+        <v>43405.79645833333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>010031811010000011965508</t>
+          <t>010031811010000012267522</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>1000</v>
+        <v>3300</v>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
@@ -1539,17 +1539,17 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>43405.76194444444</v>
+        <v>43405.7854050926</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>010031811010000011765130</t>
+          <t>010031811010000012166911</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>1330</v>
+        <v>3338</v>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
@@ -1557,17 +1557,17 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>43405.75443287037</v>
+        <v>43405.78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>010031811010000011064675</t>
+          <t>010031811010000012066313</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>1000</v>
+        <v>7766</v>
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
@@ -1575,13 +1575,13 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>43405.74923611111</v>
+        <v>43405.7715625</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>010031811010000010964575</t>
+          <t>010031811010000011965508</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
@@ -1593,17 +1593,17 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>43405.74790509259</v>
+        <v>43405.76194444444</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>010031811010000010864298</t>
+          <t>010031811010000011765130</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>1300</v>
+        <v>1330</v>
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
@@ -1611,13 +1611,13 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>43405.74549768519</v>
+        <v>43405.75443287037</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>010031811010000006960650</t>
+          <t>010031811010000011064675</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
@@ -1625,17 +1625,17 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>老板</t>
+          <t>测试II</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>43405.70396990741</v>
+        <v>43405.74923611111</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>010031811010000005959775</t>
+          <t>010031811010000010964575</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
@@ -1647,89 +1647,89 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>43405.69495370371</v>
+        <v>43405.74790509259</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>010031811010000004457308</t>
+          <t>010031811010000010864298</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>老板</t>
+          <t>测试II</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>43405.67108796296</v>
+        <v>43405.74549768519</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>010031811010000003452449</t>
+          <t>010031811010000006960650</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>2316</v>
+        <v>1000</v>
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>老板</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>43405.62734953704</v>
+        <v>43405.70396990741</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>010031811010000002241072</t>
+          <t>010031811010000005959775</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>2614</v>
+        <v>1000</v>
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>老板</t>
+          <t>测试II</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>43405.4768287037</v>
+        <v>43405.69495370371</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>010031811010000001839895</t>
+          <t>010031811010000004457308</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>2226</v>
+        <v>1000</v>
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>老板</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>43406.07298611111</v>
+        <v>43405.67108796296</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>010031811010000001639452</t>
+          <t>010031811010000003452449</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>2200</v>
+        <v>2316</v>
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
@@ -1737,17 +1737,17 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>43405.45959490741</v>
+        <v>43405.62734953704</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>010031811010000001539140</t>
+          <t>010031811010000002241072</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>1000</v>
+        <v>2614</v>
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
@@ -1755,49 +1755,49 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>43405.45796296297</v>
+        <v>43405.4768287037</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>010031810120000003661896</t>
+          <t>010031811010000001839895</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>1060</v>
+        <v>2226</v>
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>43385.71944444445</v>
+        <v>43406.07298611111</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>010031809180000003862018</t>
+          <t>010031811010000001639452</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>1150</v>
+        <v>2200</v>
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>43361.72694444445</v>
+        <v>43405.45959490741</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>010031808140000001461773</t>
+          <t>010031811010000001539140</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
@@ -1805,233 +1805,233 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>cyytest</t>
+          <t>老板</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>43326.72043981482</v>
+        <v>43405.45796296297</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>010031808140000001361131</t>
+          <t>010031810120000003661896</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>1330</v>
+        <v>1060</v>
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>cyytest</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>43326.71296296296</v>
+        <v>43385.71944444445</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>010031808100000007260081</t>
+          <t>010031809180000003862018</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>1000</v>
+        <v>1150</v>
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>43322.69711805556</v>
+        <v>43361.72694444445</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>010031808100000007159999</t>
+          <t>010031808140000001461773</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>1030</v>
+        <v>1000</v>
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>cyytest</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>43322.69488425926</v>
+        <v>43326.72043981482</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>010031808100000006057851</t>
+          <t>010031808140000001361131</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>2314</v>
+        <v>1330</v>
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>cyytest</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>43322.67150462963</v>
+        <v>43326.71296296296</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>010031808090000001653399</t>
+          <t>010031808100000007260081</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>2614</v>
+        <v>1000</v>
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>cyytest</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>43321.61975694444</v>
+        <v>43322.69711805556</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>010031807110000016678044</t>
+          <t>010031808100000007159999</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>1000</v>
+        <v>1030</v>
       </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>43292.90524305555</v>
+        <v>43322.69488425926</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>010031807100000023172643</t>
+          <t>010031808100000006057851</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>773</v>
+        <v>2314</v>
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>小七</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>43291.84327546296</v>
+        <v>43322.67150462963</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>010031807100000020767857</t>
+          <t>010031808090000001653399</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>750</v>
+        <v>2614</v>
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>小七</t>
+          <t>cyytest</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>43291.78856481481</v>
+        <v>43321.61975694444</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>010031807090000014858295</t>
+          <t>010031807110000016678044</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
-          <t>小六</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>43290.67591435185</v>
+        <v>43292.90524305555</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>010031806280000003969641</t>
+          <t>010031807100000023172643</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>1000</v>
+        <v>773</v>
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>小七</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>43279.80664351852</v>
+        <v>43291.84327546296</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>010031806270000001453969</t>
+          <t>010031807100000020767857</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>1339</v>
+        <v>750</v>
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>小七</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>43278.62646990741</v>
+        <v>43291.78856481481</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>010031806270000001152470</t>
+          <t>010031807090000014858295</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="C91" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>小六</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>43278.62196759259</v>
+        <v>43290.67591435185</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>010031806040000006777732</t>
+          <t>010031806280000003969641</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
@@ -2039,57 +2039,57 @@
       </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>43255.90106481482</v>
+        <v>43279.80664351852</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>010031805170000004972122</t>
+          <t>010031806270000001453969</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>8446</v>
+        <v>1339</v>
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
-          <t>蔡2</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>43286.39454861111</v>
+        <v>43278.62646990741</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>010031805280000004256934</t>
+          <t>010031806270000001152470</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="C94" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>43248.66165509259</v>
+        <v>43278.62196759259</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>010031805280000003854655</t>
+          <t>010031806040000006777732</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>3600</v>
+        <v>1000</v>
       </c>
       <c r="C95" s="1" t="inlineStr">
         <is>
@@ -2097,85 +2097,85 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>43248.63474537037</v>
+        <v>43255.90106481482</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>010031805280000002050873</t>
+          <t>010031805170000004972122</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>3500</v>
+        <v>8446</v>
       </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>蔡2</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>43248.59554398148</v>
+        <v>43286.39454861111</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>010031805250000011773374</t>
+          <t>010031805280000004256934</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>1030</v>
+        <v>4000</v>
       </c>
       <c r="C97" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>43245.84988425926</v>
+        <v>43248.66165509259</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>010031805250000011372232</t>
+          <t>010031805280000003854655</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>1000</v>
+        <v>3600</v>
       </c>
       <c r="C98" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>43245.83754629629</v>
+        <v>43248.63474537037</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>010031805250000010870077</t>
+          <t>010031805280000002050873</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>1030</v>
+        <v>3500</v>
       </c>
       <c r="C99" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>43245.81199074074</v>
+        <v>43248.59554398148</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>010031805250000009663039</t>
+          <t>010031805250000011773374</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
@@ -2187,17 +2187,17 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>43245.73378472222</v>
+        <v>43245.84988425926</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>010031805250000003137867</t>
+          <t>010031805250000011372232</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>1030</v>
+        <v>1000</v>
       </c>
       <c r="C101" s="1" t="inlineStr">
         <is>
@@ -2205,17 +2205,17 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>43245.43876157407</v>
+        <v>43245.83754629629</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>010031805250000002937771</t>
+          <t>010031805250000010870077</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>1400</v>
+        <v>1030</v>
       </c>
       <c r="C102" s="1" t="inlineStr">
         <is>
@@ -2223,71 +2223,71 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>43245.43822916667</v>
+        <v>43245.81199074074</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>010031805250000001837054</t>
+          <t>010031805250000009663039</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>1300</v>
+        <v>1030</v>
       </c>
       <c r="C103" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>43245.42971064815</v>
+        <v>43245.73378472222</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>010031805250000001336731</t>
+          <t>010031805250000003137867</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>1000</v>
+        <v>1030</v>
       </c>
       <c r="C104" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>43245.42699074074</v>
+        <v>43245.43876157407</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>010031805240000011771825</t>
+          <t>010031805250000002937771</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="C105" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>43244.83571759259</v>
+        <v>43245.43822916667</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>010031805240000008859978</t>
+          <t>010031805250000001837054</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="C106" s="1" t="inlineStr">
         <is>
@@ -2295,17 +2295,17 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>43244.71046296296</v>
+        <v>43245.42971064815</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>010031805240000008058476</t>
+          <t>010031805250000001336731</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>1543</v>
+        <v>1000</v>
       </c>
       <c r="C107" s="1" t="inlineStr">
         <is>
@@ -2313,67 +2313,67 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>43244.67920138889</v>
+        <v>43245.42699074074</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>010031805240000004753508</t>
+          <t>010031805240000011771825</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="C108" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>43244.68908564815</v>
+        <v>43244.83571759259</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>010031805240000004653419</t>
+          <t>010031805240000008859978</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>5150</v>
+        <v>1700</v>
       </c>
       <c r="C109" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>43244.64623842593</v>
+        <v>43244.71046296296</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>010031805240000004352435</t>
+          <t>010031805240000008058476</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>1030</v>
+        <v>1543</v>
       </c>
       <c r="C110" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>43244.64501157407</v>
+        <v>43244.67920138889</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>010031805240000004252187</t>
+          <t>010031805240000004753508</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
@@ -2385,53 +2385,53 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>43244.64387731482</v>
+        <v>43244.68908564815</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>010031805240000002036976</t>
+          <t>010031805240000004653419</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>1000</v>
+        <v>5150</v>
       </c>
       <c r="C112" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>43244.60085648148</v>
+        <v>43244.64623842593</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>010031805240000001936773</t>
+          <t>010031805240000004352435</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>1000</v>
+        <v>1030</v>
       </c>
       <c r="C113" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>43244.42626157407</v>
+        <v>43244.64501157407</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>010031805220000006979607</t>
+          <t>010031805240000004252187</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C114" s="1" t="inlineStr">
         <is>
@@ -2439,53 +2439,53 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>43242.92324074074</v>
+        <v>43244.64387731482</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>010031805220000006478274</t>
+          <t>010031805240000002036976</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>1030</v>
+        <v>1000</v>
       </c>
       <c r="C115" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>43242.92403935185</v>
+        <v>43244.60085648148</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>010031805220000006178120</t>
+          <t>010031805240000001936773</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>1030</v>
+        <v>1000</v>
       </c>
       <c r="C116" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>43242.92217592592</v>
+        <v>43244.42626157407</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>010031805220000005074607</t>
+          <t>010031805220000006979607</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="C117" s="1" t="inlineStr">
         <is>
@@ -2493,17 +2493,17 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>43242.88334490741</v>
+        <v>43242.92324074074</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>010031805220000004973857</t>
+          <t>010031805220000006478274</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>721</v>
+        <v>1030</v>
       </c>
       <c r="C118" s="1" t="inlineStr">
         <is>
@@ -2511,17 +2511,17 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>43242.85583333333</v>
+        <v>43242.92403935185</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>010031805220000004873601</t>
+          <t>010031805220000006178120</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>721</v>
+        <v>1030</v>
       </c>
       <c r="C119" s="1" t="inlineStr">
         <is>
@@ -2529,13 +2529,13 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>43242.85356481482</v>
+        <v>43242.92217592592</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>010031805220000004070900</t>
+          <t>010031805220000005074607</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
@@ -2547,17 +2547,17 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>43242.82196759259</v>
+        <v>43242.88334490741</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>010031805220000003869965</t>
+          <t>010031805220000004973857</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>700</v>
+        <v>721</v>
       </c>
       <c r="C121" s="1" t="inlineStr">
         <is>
@@ -2565,13 +2565,13 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>43242.81097222222</v>
+        <v>43242.85583333333</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>010031805220000003767264</t>
+          <t>010031805220000004873601</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
@@ -2583,49 +2583,49 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>43242.80887731481</v>
+        <v>43242.85356481482</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>010031805220000002159535</t>
+          <t>010031805220000004070900</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>3700</v>
+        <v>721</v>
       </c>
       <c r="C123" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>43242.69032407407</v>
+        <v>43242.82196759259</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>010031805220000001442839</t>
+          <t>010031805220000003869965</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>4841</v>
+        <v>700</v>
       </c>
       <c r="C124" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>43242.49645833333</v>
+        <v>43242.81097222222</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>010031805220000000339135</t>
+          <t>010031805220000003767264</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
@@ -2637,17 +2637,17 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>43242.49416666666</v>
+        <v>43242.80887731481</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>010031805210000003276365</t>
+          <t>010031805220000002159535</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>4350</v>
+        <v>3700</v>
       </c>
       <c r="C126" s="1" t="inlineStr">
         <is>
@@ -2655,17 +2655,17 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>43241.88585648148</v>
+        <v>43242.69032407407</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>010031805210000003069293</t>
+          <t>010031805220000001442839</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>6500</v>
+        <v>4841</v>
       </c>
       <c r="C127" s="1" t="inlineStr">
         <is>
@@ -2673,13 +2673,13 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>43241.8509375</v>
+        <v>43242.49645833333</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>010031805180000002658103</t>
+          <t>010031805220000000339135</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
@@ -2691,53 +2691,53 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>43238.73307870371</v>
+        <v>43242.49416666666</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>010031805180000001851673</t>
+          <t>010031805210000003276365</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>8961</v>
+        <v>4350</v>
       </c>
       <c r="C129" s="1" t="inlineStr">
         <is>
-          <t>蔡2</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>43238.59898148148</v>
+        <v>43241.88585648148</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>010031805170000005278719</t>
+          <t>010031805210000003069293</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>2781</v>
+        <v>6500</v>
       </c>
       <c r="C130" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>43238.48447916667</v>
+        <v>43241.8509375</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>010031805170000005177264</t>
+          <t>010031805180000002658103</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>927</v>
+        <v>721</v>
       </c>
       <c r="C131" s="1" t="inlineStr">
         <is>
@@ -2745,121 +2745,121 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>43237.89527777778</v>
+        <v>43238.73307870371</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>010031805150000000167610</t>
+          <t>010031805180000001851673</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>721</v>
+        <v>8961</v>
       </c>
       <c r="C132" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>蔡2</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>43236.69444444445</v>
+        <v>43238.59898148148</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>010031805150000000433050</t>
+          <t>010031805170000005278719</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>850</v>
+        <v>2781</v>
       </c>
       <c r="C133" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>43235.39078703704</v>
+        <v>43238.48447916667</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>010031805140000007086359</t>
+          <t>010031805170000005177264</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>900</v>
+        <v>927</v>
       </c>
       <c r="C134" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>43235.0059837963</v>
+        <v>43237.89527777778</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>010031805140000005776986</t>
+          <t>010031805150000000167610</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>700</v>
+        <v>721</v>
       </c>
       <c r="C135" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>43234.96986111111</v>
+        <v>43236.69444444445</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>010031805070000000853278</t>
+          <t>010031805150000000433050</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>11000</v>
+        <v>850</v>
       </c>
       <c r="C136" s="1" t="inlineStr">
         <is>
-          <t>测试II</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>43228.49488425926</v>
+        <v>43235.39078703704</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>010031805040000001563697</t>
+          <t>010031805140000007086359</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="C137" s="1" t="inlineStr">
         <is>
-          <t>王建</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>43224.7384375</v>
+        <v>43235.0059837963</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>010031805040000000758257</t>
+          <t>010031805140000005776986</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
@@ -2867,35 +2867,35 @@
       </c>
       <c r="C138" s="1" t="inlineStr">
         <is>
-          <t>王建</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>43224.69585648148</v>
+        <v>43234.96986111111</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>010031803190000001758946</t>
+          <t>010031805070000000853278</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>700</v>
+        <v>11000</v>
       </c>
       <c r="C139" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>测试II</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>43178.75329861111</v>
+        <v>43228.49488425926</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>010031803190000001358718</t>
+          <t>010031805040000001563697</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
@@ -2903,35 +2903,35 @@
       </c>
       <c r="C140" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>王建</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>43178.68009259259</v>
+        <v>43224.7384375</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>010031803190000000955521</t>
+          <t>010031805040000000758257</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C141" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>王建</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>43178.66236111111</v>
+        <v>43224.69585648148</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>010031803190000000655148</t>
+          <t>010031803190000001758946</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
@@ -2943,13 +2943,13 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>43178.64192129629</v>
+        <v>43178.75329861111</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>010031803190000000352070</t>
+          <t>010031803190000001358718</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
@@ -2961,17 +2961,17 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>43178.61936342593</v>
+        <v>43178.68009259259</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>010031803190000000250682</t>
+          <t>010031803190000000955521</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C144" s="1" t="inlineStr">
         <is>
@@ -2979,35 +2979,35 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>43178.60233796296</v>
+        <v>43178.66236111111</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>010031803120000003462343</t>
+          <t>010031803190000000655148</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>12200</v>
+        <v>700</v>
       </c>
       <c r="C145" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>43171.88280092592</v>
+        <v>43178.64192129629</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>010031801110000001363769</t>
+          <t>010031803190000000352070</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>8000</v>
+        <v>700</v>
       </c>
       <c r="C146" s="1" t="inlineStr">
         <is>
@@ -3015,17 +3015,17 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>43118.7449537037</v>
+        <v>43178.61936342593</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>010031712250000006769311</t>
+          <t>010031803190000000250682</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>3700</v>
+        <v>700</v>
       </c>
       <c r="C147" s="1" t="inlineStr">
         <is>
@@ -3033,35 +3033,35 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>43117.80262731481</v>
+        <v>43178.60233796296</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>010031712250000006669196</t>
+          <t>010031803120000003462343</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>4700</v>
+        <v>12200</v>
       </c>
       <c r="C148" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>43118.80167824074</v>
+        <v>43171.88280092592</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>010031712250000005665259</t>
+          <t>010031801110000001363769</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>3800</v>
+        <v>8000</v>
       </c>
       <c r="C149" s="1" t="inlineStr">
         <is>
@@ -3069,17 +3069,17 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>43094.75590277778</v>
+        <v>43118.7449537037</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>010031712250000004555212</t>
+          <t>010031712250000006769311</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>2700</v>
+        <v>3700</v>
       </c>
       <c r="C150" s="1" t="inlineStr">
         <is>
@@ -3087,17 +3087,17 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>43094.63988425926</v>
+        <v>43117.80262731481</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>010031712240000000748604</t>
+          <t>010031712250000006669196</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>1000</v>
+        <v>4700</v>
       </c>
       <c r="C151" s="1" t="inlineStr">
         <is>
@@ -3105,17 +3105,17 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>43093.56347222222</v>
+        <v>43118.80167824074</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>010031712230000005862467</t>
+          <t>010031712250000005665259</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>700</v>
+        <v>3800</v>
       </c>
       <c r="C152" s="1" t="inlineStr">
         <is>
@@ -3123,17 +3123,17 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>43092.72354166667</v>
+        <v>43094.75590277778</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>010031712230000005762382</t>
+          <t>010031712250000004555212</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>1200</v>
+        <v>2700</v>
       </c>
       <c r="C153" s="1" t="inlineStr">
         <is>
@@ -3141,17 +3141,17 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>43092.72246527778</v>
+        <v>43094.63988425926</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>010031712230000005562055</t>
+          <t>010031712240000000748604</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C154" s="1" t="inlineStr">
         <is>
@@ -3159,13 +3159,13 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>43092.71997685185</v>
+        <v>43093.56347222222</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>010031712230000005461921</t>
+          <t>010031712230000005862467</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
@@ -3177,17 +3177,17 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>43092.71759259259</v>
+        <v>43092.72354166667</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>010031712230000004861161</t>
+          <t>010031712230000005762382</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>5700</v>
+        <v>1200</v>
       </c>
       <c r="C156" s="1" t="inlineStr">
         <is>
@@ -3195,17 +3195,17 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>43092.70834490741</v>
+        <v>43092.72246527778</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>010031712230000004459917</t>
+          <t>010031712230000005562055</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="C157" s="1" t="inlineStr">
         <is>
@@ -3213,35 +3213,35 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>43092.69388888889</v>
+        <v>43092.71997685185</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>010031712230000003556782</t>
+          <t>010031712230000005461921</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="C158" s="1" t="inlineStr">
         <is>
-          <t>cyytest</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>43092.65787037037</v>
+        <v>43092.71759259259</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>010031712220000007359792</t>
+          <t>010031712230000004861161</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>4000</v>
+        <v>5700</v>
       </c>
       <c r="C159" s="1" t="inlineStr">
         <is>
@@ -3249,17 +3249,17 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>43091.69381944444</v>
+        <v>43092.70834490741</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>010031712220000005557157</t>
+          <t>010031712230000004459917</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>6000</v>
+        <v>1700</v>
       </c>
       <c r="C160" s="1" t="inlineStr">
         <is>
@@ -3267,35 +3267,35 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>43091.66244212963</v>
+        <v>43092.69388888889</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>010031712220000005356939</t>
+          <t>010031712230000003556782</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="C161" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>cyytest</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>43091.6597337963</v>
+        <v>43092.65787037037</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>010031712220000003651721</t>
+          <t>010031712220000007359792</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C162" s="1" t="inlineStr">
         <is>
@@ -3303,17 +3303,17 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>43091.59927083334</v>
+        <v>43091.69381944444</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>010031712220000003049232</t>
+          <t>010031712220000005557157</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="C163" s="1" t="inlineStr">
         <is>
@@ -3321,35 +3321,35 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>43091.5712037037</v>
+        <v>43091.66244212963</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>010031712220000002243115</t>
+          <t>010031712220000005356939</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="C164" s="1" t="inlineStr">
         <is>
-          <t>cyytest</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>43091.49972222222</v>
+        <v>43091.6597337963</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>010031712220000002142504</t>
+          <t>010031712220000003651721</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>3100</v>
+        <v>2000</v>
       </c>
       <c r="C165" s="1" t="inlineStr">
         <is>
@@ -3357,17 +3357,17 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>43091.49296296296</v>
+        <v>43091.59927083334</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>010031712220000001140385</t>
+          <t>010031712220000003049232</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>4100</v>
+        <v>5000</v>
       </c>
       <c r="C166" s="1" t="inlineStr">
         <is>
@@ -3375,17 +3375,17 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>43091.4687037037</v>
+        <v>43091.5712037037</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>010031712210000005270645</t>
+          <t>010031712220000002243115</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="C167" s="1" t="inlineStr">
         <is>
@@ -3393,17 +3393,17 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>43090.81806712963</v>
+        <v>43091.49972222222</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>010031712210000005069685</t>
+          <t>010031712220000002142504</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>6000</v>
+        <v>3100</v>
       </c>
       <c r="C168" s="1" t="inlineStr">
         <is>
@@ -3411,17 +3411,17 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>43090.80719907407</v>
+        <v>43091.49296296296</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>010031712210000004967030</t>
+          <t>010031712220000001140385</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>4800</v>
+        <v>4100</v>
       </c>
       <c r="C169" s="1" t="inlineStr">
         <is>
@@ -3429,71 +3429,71 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>43090.77641203703</v>
+        <v>43091.4687037037</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>010031712210000001752238</t>
+          <t>010031712210000005270645</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>4300</v>
+        <v>700</v>
       </c>
       <c r="C170" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>cyytest</t>
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>43090.60578703704</v>
+        <v>43090.81806712963</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>010031712120000000228772</t>
+          <t>010031712210000005069685</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>7194</v>
+        <v>6000</v>
       </c>
       <c r="C171" s="1" t="inlineStr">
         <is>
-          <t>马江锋</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>43067.48324074074</v>
+        <v>43090.80719907407</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>010031711290000000154204</t>
+          <t>010031712210000004967030</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="C172" s="1" t="inlineStr">
         <is>
-          <t>俞星蓝</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>43068.62818287037</v>
+        <v>43090.77641203703</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>010031711280000000655025</t>
+          <t>010031712210000001752238</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>700</v>
+        <v>4300</v>
       </c>
       <c r="C173" s="1" t="inlineStr">
         <is>
@@ -3501,71 +3501,71 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>43067.6375</v>
+        <v>43090.60578703704</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>010031711280000000552466</t>
+          <t>010031712120000000228772</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>7700</v>
+        <v>7194</v>
       </c>
       <c r="C174" s="1" t="inlineStr">
         <is>
-          <t>王幼敏</t>
+          <t>马江锋</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>43067.60783564814</v>
+        <v>43067.48324074074</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>010031711280000000452408</t>
+          <t>010031711290000000154204</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="C175" s="1" t="inlineStr">
         <is>
-          <t>王幼敏</t>
+          <t>俞星蓝</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>43067.60709490741</v>
+        <v>43068.62818287037</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>010031711280000000352359</t>
+          <t>010031711280000000655025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>3700</v>
+        <v>700</v>
       </c>
       <c r="C176" s="1" t="inlineStr">
         <is>
-          <t>王幼敏</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>43067.6065162037</v>
+        <v>43067.6375</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>010031711280000000152164</t>
+          <t>010031711280000000552466</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>1800</v>
+        <v>7700</v>
       </c>
       <c r="C177" s="1" t="inlineStr">
         <is>
@@ -3573,71 +3573,71 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>43067.60445601852</v>
+        <v>43067.60783564814</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>010031711250000000552841</t>
+          <t>010031711280000000452408</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>1000</v>
+        <v>4700</v>
       </c>
       <c r="C178" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>王幼敏</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>43064.61372685185</v>
+        <v>43067.60709490741</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>010031711250000000452790</t>
+          <t>010031711280000000352359</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>1000</v>
+        <v>3700</v>
       </c>
       <c r="C179" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>王幼敏</t>
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>43067.60543981481</v>
+        <v>43067.6065162037</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>010031711250000000247065</t>
+          <t>010031711280000000152164</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>11400</v>
+        <v>1800</v>
       </c>
       <c r="C180" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>王幼敏</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>43064.58445601852</v>
+        <v>43067.60445601852</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>010031711230000003777848</t>
+          <t>010031711250000000552841</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C181" s="1" t="inlineStr">
         <is>
@@ -3645,17 +3645,17 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>43062.9018287037</v>
+        <v>43064.61372685185</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>010031711230000003176481</t>
+          <t>010031711250000000452790</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C182" s="1" t="inlineStr">
         <is>
@@ -3663,35 +3663,35 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>43062.88672453703</v>
+        <v>43067.60543981481</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>010031711230000003076104</t>
+          <t>010031711250000000247065</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>850</v>
+        <v>11400</v>
       </c>
       <c r="C183" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>43062.88469907407</v>
+        <v>43064.58445601852</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>010031711230000002775824</t>
+          <t>010031711230000003777848</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="C184" s="1" t="inlineStr">
         <is>
@@ -3699,17 +3699,17 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>43064.60179398148</v>
+        <v>43062.9018287037</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>010031711230000002369447</t>
+          <t>010031711230000003176481</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C185" s="1" t="inlineStr">
         <is>
@@ -3717,71 +3717,71 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>43064.60221064815</v>
+        <v>43062.88672453703</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>010031711070000001258393</t>
+          <t>010031711230000003076104</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="C186" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>43046.68196759259</v>
+        <v>43062.88469907407</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>010031711070000001158182</t>
+          <t>010031711230000002775824</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="C187" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>43046.67907407408</v>
+        <v>43064.60179398148</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>010031710310000001863852</t>
+          <t>010031711230000002369447</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C188" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>43039.7394212963</v>
+        <v>43064.60221064815</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>010031710310000001763794</t>
+          <t>010031711070000001258393</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C189" s="1" t="inlineStr">
         <is>
@@ -3789,71 +3789,71 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>43039.73877314815</v>
+        <v>43046.68196759259</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>010031710310000001663720</t>
+          <t>010031711070000001158182</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="C190" s="1" t="inlineStr">
         <is>
-          <t>吴俏</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>43039.73793981481</v>
+        <v>43046.67907407408</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>010031710310000001563618</t>
+          <t>010031710310000001863852</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="C191" s="1" t="inlineStr">
         <is>
-          <t>吴俏</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>43039.7372800926</v>
+        <v>43039.7394212963</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>010031710310000001463424</t>
+          <t>010031710310000001763794</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>3700</v>
+        <v>1000</v>
       </c>
       <c r="C192" s="1" t="inlineStr">
         <is>
-          <t>吴俏</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>43039.73460648148</v>
+        <v>43039.73877314815</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>010031710310000001363368</t>
+          <t>010031710310000001663720</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="C193" s="1" t="inlineStr">
         <is>
@@ -3861,17 +3861,17 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>43039.73384259259</v>
+        <v>43039.73793981481</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>010031710310000001263289</t>
+          <t>010031710310000001563618</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>700</v>
+        <v>2700</v>
       </c>
       <c r="C194" s="1" t="inlineStr">
         <is>
@@ -3879,17 +3879,17 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>43039.73283564814</v>
+        <v>43039.7372800926</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>010031710310000001163224</t>
+          <t>010031710310000001463424</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>1700</v>
+        <v>3700</v>
       </c>
       <c r="C195" s="1" t="inlineStr">
         <is>
@@ -3897,17 +3897,17 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>43039.73217592593</v>
+        <v>43039.73460648148</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>010031710310000001063151</t>
+          <t>010031710310000001363368</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>800</v>
+        <v>2700</v>
       </c>
       <c r="C196" s="1" t="inlineStr">
         <is>
@@ -3915,71 +3915,71 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>43039.73138888889</v>
+        <v>43039.73384259259</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>010031710310000000436999</t>
+          <t>010031710310000001263289</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C197" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>吴俏</t>
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>43039.43498842593</v>
+        <v>43039.73283564814</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>010031710300000000764796</t>
+          <t>010031710310000001163224</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="C198" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>吴俏</t>
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>43038.75601851852</v>
+        <v>43039.73217592593</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>010031710270000001351086</t>
+          <t>010031710310000001063151</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="C199" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>吴俏</t>
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>43035.59170138889</v>
+        <v>43039.73138888889</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>010031710250000002573871</t>
+          <t>010031710310000000436999</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C200" s="1" t="inlineStr">
         <is>
@@ -3987,31 +3987,31 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>43033.85533564815</v>
+        <v>43039.43498842593</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>010031710250000002472970</t>
+          <t>010031710300000000764796</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C201" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>43033.84488425926</v>
+        <v>43038.75601851852</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>010031710250000002372780</t>
+          <t>010031710270000001351086</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>43033.84267361111</v>
+        <v>43035.59170138889</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>010031710250000002271509</t>
+          <t>010031710250000002573871</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
@@ -4041,17 +4041,17 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>43033.82798611111</v>
+        <v>43033.85533564815</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>010031710250000002171124</t>
+          <t>010031710250000002472970</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C204" s="1" t="inlineStr">
         <is>
@@ -4059,31 +4059,31 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>43033.82371527778</v>
+        <v>43033.84488425926</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>010031710250000002069481</t>
+          <t>010031710250000002372780</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C205" s="1" t="inlineStr">
         <is>
-          <t>cyytest</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>43033.80555555555</v>
+        <v>43033.84267361111</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>010031710250000001969198</t>
+          <t>010031710250000002271509</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
@@ -4091,17 +4091,17 @@
       </c>
       <c r="C206" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>43033.80215277777</v>
+        <v>43033.82798611111</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>010031710250000001868798</t>
+          <t>010031710250000002171124</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
@@ -4113,31 +4113,31 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>43033.796875</v>
+        <v>43033.82371527778</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>010031710250000001766614</t>
+          <t>010031710250000002069481</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C208" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>cyytest</t>
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>43033.77133101852</v>
+        <v>43033.80555555555</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>010031710250000001666267</t>
+          <t>010031710250000001969198</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
@@ -4145,21 +4145,21 @@
       </c>
       <c r="C209" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>43033.76740740741</v>
+        <v>43033.80215277777</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>010031710250000001566107</t>
+          <t>010031710250000001868798</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C210" s="1" t="inlineStr">
         <is>
@@ -4167,17 +4167,17 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>43033.76587962963</v>
+        <v>43033.796875</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>010031710250000001263010</t>
+          <t>010031710250000001766614</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C211" s="1" t="inlineStr">
         <is>
@@ -4185,17 +4185,17 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>43033.72976851852</v>
+        <v>43033.77133101852</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>010031710250000001162447</t>
+          <t>010031710250000001666267</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C212" s="1" t="inlineStr">
         <is>
@@ -4203,13 +4203,13 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>43033.72344907407</v>
+        <v>43033.76740740741</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>010031710250000000959866</t>
+          <t>010031710250000001566107</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
@@ -4221,17 +4221,17 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>43033.69563657408</v>
+        <v>43033.76587962963</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>010031710250000000859689</t>
+          <t>010031710250000001263010</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C214" s="1" t="inlineStr">
         <is>
@@ -4239,13 +4239,13 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>43033.69143518519</v>
+        <v>43033.72976851852</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>010031710250000000757705</t>
+          <t>010031710250000001162447</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
@@ -4257,13 +4257,13 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>43033.6691087963</v>
+        <v>43033.72344907407</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>010031710250000000653819</t>
+          <t>010031710250000000959866</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
@@ -4275,31 +4275,31 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>43033.6234375</v>
+        <v>43033.69563657408</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>010031710250000000543180</t>
+          <t>010031710250000000859689</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="C217" s="1" t="inlineStr">
         <is>
-          <t>王幼敏</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>43033.50346064815</v>
+        <v>43033.69143518519</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>010031710240000006162475</t>
+          <t>010031710250000000757705</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
@@ -4307,17 +4307,17 @@
       </c>
       <c r="C218" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>43032.7246875</v>
+        <v>43033.6691087963</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>010031710240000005861906</t>
+          <t>010031710250000000653819</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
@@ -4325,53 +4325,53 @@
       </c>
       <c r="C219" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>43032.71703703704</v>
+        <v>43033.6234375</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>010031710240000005560663</t>
+          <t>010031710250000000543180</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="C220" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>王幼敏</t>
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>43032.70633101852</v>
+        <v>43033.50346064815</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>010031710240000003753292</t>
+          <t>010031710240000006162475</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C221" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>43032.6177662037</v>
+        <v>43032.7246875</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>010031710240000003347157</t>
+          <t>010031710240000005861906</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
@@ -4379,57 +4379,57 @@
       </c>
       <c r="C222" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>43032.61199074074</v>
+        <v>43032.71703703704</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>010031710240000003142754</t>
+          <t>010031710240000005560663</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>3300</v>
+        <v>700</v>
       </c>
       <c r="C223" s="1" t="inlineStr">
         <is>
-          <t>蔡2</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>43032.53321759259</v>
+        <v>43032.70633101852</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>010031710240000002942377</t>
+          <t>010031710240000003753292</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C224" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>43032.49388888889</v>
+        <v>43032.6177662037</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>010031710240000002542044</t>
+          <t>010031710240000003347157</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C225" s="1" t="inlineStr">
         <is>
@@ -4437,35 +4437,35 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>43032.48912037037</v>
+        <v>43032.61199074074</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>010031710240000002041182</t>
+          <t>010031710240000003142754</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>1000</v>
+        <v>3300</v>
       </c>
       <c r="C226" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>蔡2</t>
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>43033.5028125</v>
+        <v>43032.53321759259</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>010031710240000001739433</t>
+          <t>010031710240000002942377</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C227" s="1" t="inlineStr">
         <is>
@@ -4473,17 +4473,17 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>43032.46128472222</v>
+        <v>43032.49388888889</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>010031710240000000737657</t>
+          <t>010031710240000002542044</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C228" s="1" t="inlineStr">
         <is>
@@ -4491,49 +4491,49 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>43032.44480324074</v>
+        <v>43032.48912037037</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>010031710230000004562692</t>
+          <t>010031710240000002041182</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>3200</v>
+        <v>1000</v>
       </c>
       <c r="C229" s="1" t="inlineStr">
         <is>
-          <t>王幼敏</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>43031.72606481481</v>
+        <v>43033.5028125</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>010031710230000004462592</t>
+          <t>010031710240000001739433</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="C230" s="1" t="inlineStr">
         <is>
-          <t>王幼敏</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>43031.72513888889</v>
+        <v>43032.46128472222</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>010031710230000003859144</t>
+          <t>010031710240000000737657</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
@@ -4541,21 +4541,21 @@
       </c>
       <c r="C231" s="1" t="inlineStr">
         <is>
-          <t>王幼敏</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>43031.68520833334</v>
+        <v>43032.44480324074</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>010031710230000003658532</t>
+          <t>010031710230000004562692</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>700</v>
+        <v>3200</v>
       </c>
       <c r="C232" s="1" t="inlineStr">
         <is>
@@ -4563,85 +4563,85 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>43031.6781712963</v>
+        <v>43031.72606481481</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>010031710230000001942993</t>
+          <t>010031710230000004462592</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>2150</v>
+        <v>900</v>
       </c>
       <c r="C233" s="1" t="inlineStr">
         <is>
-          <t>蔡1</t>
+          <t>王幼敏</t>
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>43031.52894675926</v>
+        <v>43031.72513888889</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>010031710230000001139627</t>
+          <t>010031710230000003859144</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C234" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>王幼敏</t>
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>43032.43363425926</v>
+        <v>43031.68520833334</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>010031710230000000134462</t>
+          <t>010031710230000003658532</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>1050</v>
+        <v>700</v>
       </c>
       <c r="C235" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>王幼敏</t>
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>43031.42181712963</v>
+        <v>43031.6781712963</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>010031710200000004070062</t>
+          <t>010031710230000001942993</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>900</v>
+        <v>2150</v>
       </c>
       <c r="C236" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>蔡1</t>
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>43028.82836805555</v>
+        <v>43031.52894675926</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>010031710200000001156274</t>
+          <t>010031710230000001139627</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
@@ -4653,103 +4653,103 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>43028.72337962963</v>
+        <v>43032.43363425926</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>010031710200000000252030</t>
+          <t>010031710230000000134462</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>3200</v>
+        <v>1050</v>
       </c>
       <c r="C238" s="1" t="inlineStr">
         <is>
-          <t>王幼敏</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>43028.60262731482</v>
+        <v>43031.42181712963</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>010031710200000000151961</t>
+          <t>010031710200000004070062</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="C239" s="1" t="inlineStr">
         <is>
-          <t>王幼敏</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>43028.60195601852</v>
+        <v>43028.82836805555</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>010031710180000001867664</t>
+          <t>010031710200000001156274</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C240" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>43026.78365740741</v>
+        <v>43028.72337962963</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>010031710170000000470558</t>
+          <t>010031710200000000252030</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>700</v>
+        <v>3200</v>
       </c>
       <c r="C241" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>王幼敏</t>
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>43025.82311342593</v>
+        <v>43028.60262731482</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>010031710160000005262904</t>
+          <t>010031710200000000151961</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>1950</v>
+        <v>1700</v>
       </c>
       <c r="C242" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>王幼敏</t>
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>43024.74664351852</v>
+        <v>43028.60195601852</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>010031710160000004660702</t>
+          <t>010031710180000001867664</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
@@ -4757,53 +4757,53 @@
       </c>
       <c r="C243" s="1" t="inlineStr">
         <is>
-          <t>金艳霞</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>43024.70571759259</v>
+        <v>43026.78365740741</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>010031710160000004258443</t>
+          <t>010031710170000000470558</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C244" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>43024.69771990741</v>
+        <v>43025.82311342593</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>010031710160000003154516</t>
+          <t>010031710160000005262904</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>700</v>
+        <v>1950</v>
       </c>
       <c r="C245" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>43024.63641203703</v>
+        <v>43024.74664351852</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>010031710160000003051863</t>
+          <t>010031710160000004660702</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
@@ -4811,39 +4811,39 @@
       </c>
       <c r="C246" s="1" t="inlineStr">
         <is>
-          <t>蔡2</t>
+          <t>金艳霞</t>
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>43024.63246527778</v>
+        <v>43024.70571759259</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>010031710160000002950189</t>
+          <t>010031710160000004258443</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C247" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>43024.58266203704</v>
+        <v>43024.69771990741</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>010031710160000002847640</t>
+          <t>010031710160000003154516</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="C248" s="1" t="inlineStr">
         <is>
@@ -4851,89 +4851,89 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>43024.55482638889</v>
+        <v>43024.63641203703</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>010031710160000002746692</t>
+          <t>010031710160000003051863</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>1050</v>
+        <v>700</v>
       </c>
       <c r="C249" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>蔡2</t>
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>43024.54662037037</v>
+        <v>43024.63246527778</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>010031710160000002341966</t>
+          <t>010031710160000002950189</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C250" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>43024.49940972222</v>
+        <v>43024.58266203704</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>010031710160000001738691</t>
+          <t>010031710160000002847640</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="C251" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>43024.46100694445</v>
+        <v>43024.55482638889</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>010031709300000001040763</t>
+          <t>010031710160000002746692</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>700</v>
+        <v>1050</v>
       </c>
       <c r="C252" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>43008.47620370371</v>
+        <v>43024.54662037037</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>010031709300000000537804</t>
+          <t>010031710160000002341966</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C253" s="1" t="inlineStr">
         <is>
@@ -4941,35 +4941,35 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>43008.44021990741</v>
+        <v>43024.49940972222</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>010031709300000000437397</t>
+          <t>010031710160000001738691</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C254" s="1" t="inlineStr">
         <is>
-          <t>金艳霞</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>43008.43548611111</v>
+        <v>43024.46100694445</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>010031709280000002671236</t>
+          <t>010031709300000001040763</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>850</v>
+        <v>700</v>
       </c>
       <c r="C255" s="1" t="inlineStr">
         <is>
@@ -4977,31 +4977,31 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>43006.84168981481</v>
+        <v>43008.47620370371</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>010031709280000001353851</t>
+          <t>010031709300000000537804</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C256" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>43006.82640046296</v>
+        <v>43008.44021990741</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>010031709280000001253680</t>
+          <t>010031709300000000437397</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
@@ -5009,21 +5009,21 @@
       </c>
       <c r="C257" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>金艳霞</t>
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>43006.62239583334</v>
+        <v>43008.43548611111</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>010031709280000000135756</t>
+          <t>010031709280000002671236</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>1650</v>
+        <v>850</v>
       </c>
       <c r="C258" s="1" t="inlineStr">
         <is>
@@ -5031,13 +5031,13 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>43006.43398148148</v>
+        <v>43006.84168981481</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>010031709270000002062244</t>
+          <t>010031709280000001353851</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
@@ -5045,39 +5045,39 @@
       </c>
       <c r="C259" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>43005.78006944444</v>
+        <v>43006.82640046296</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>010031709270000000955670</t>
+          <t>010031709280000001253680</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>1650</v>
+        <v>700</v>
       </c>
       <c r="C260" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>43005.65872685185</v>
+        <v>43006.62239583334</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>010031709270000000251512</t>
+          <t>010031709280000000135756</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>1600</v>
+        <v>1650</v>
       </c>
       <c r="C261" s="1" t="inlineStr">
         <is>
@@ -5085,17 +5085,17 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>43005.61726851852</v>
+        <v>43006.43398148148</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>010031709260000003671405</t>
+          <t>010031709270000002062244</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C262" s="1" t="inlineStr">
         <is>
@@ -5103,17 +5103,17 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>43004.83011574074</v>
+        <v>43005.78006944444</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>010031709260000002955574</t>
+          <t>010031709270000000955670</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>2400</v>
+        <v>1650</v>
       </c>
       <c r="C263" s="1" t="inlineStr">
         <is>
@@ -5121,71 +5121,71 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>43004.67444444444</v>
+        <v>43005.65872685185</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>010031709220000001959410</t>
+          <t>010031709270000000251512</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="C264" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>43003.66756944444</v>
+        <v>43005.61726851852</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>010031709220000001548660</t>
+          <t>010031709260000003671405</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C265" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>43000.66528935185</v>
+        <v>43004.83011574074</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>010031709220000001348462</t>
+          <t>010031709260000002955574</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>4300</v>
+        <v>2400</v>
       </c>
       <c r="C266" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>43000.6356712963</v>
+        <v>43004.67444444444</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>010031709220000001041545</t>
+          <t>010031709220000001959410</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>9800</v>
+        <v>1000</v>
       </c>
       <c r="C267" s="1" t="inlineStr">
         <is>
@@ -5193,17 +5193,17 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>43000.53826388889</v>
+        <v>43003.66756944444</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>010031709210000000352429</t>
+          <t>010031709220000001548660</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>1472</v>
+        <v>1000</v>
       </c>
       <c r="C268" s="1" t="inlineStr">
         <is>
@@ -5211,17 +5211,17 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>42999.64954861111</v>
+        <v>43000.66528935185</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>010031709200000002761296</t>
+          <t>010031709220000001348462</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>6200</v>
+        <v>4300</v>
       </c>
       <c r="C269" s="1" t="inlineStr">
         <is>
@@ -5229,71 +5229,71 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>42998.7121412037</v>
+        <v>43000.6356712963</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>010031709180000000453504</t>
+          <t>010031709220000001041545</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>2700</v>
+        <v>9800</v>
       </c>
       <c r="C270" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>42996.61975694444</v>
+        <v>43000.53826388889</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>010031709180000000353187</t>
+          <t>010031709210000000352429</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>2700</v>
+        <v>1472</v>
       </c>
       <c r="C271" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>42996.61606481481</v>
+        <v>42999.64954861111</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>010031709180000000237250</t>
+          <t>010031709200000002761296</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>800</v>
+        <v>6200</v>
       </c>
       <c r="C272" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>42996.43255787037</v>
+        <v>42998.7121412037</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>010031709180000000135295</t>
+          <t>010031709180000000453504</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>700</v>
+        <v>2700</v>
       </c>
       <c r="C273" s="1" t="inlineStr">
         <is>
@@ -5301,17 +5301,17 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>42996.41501157408</v>
+        <v>42996.61975694444</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>010031709150000000639737</t>
+          <t>010031709180000000353187</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="C274" s="1" t="inlineStr">
         <is>
@@ -5319,17 +5319,17 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>42993.46641203704</v>
+        <v>42996.61606481481</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>010031709140000002867774</t>
+          <t>010031709180000000237250</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="C275" s="1" t="inlineStr">
         <is>
@@ -5337,35 +5337,35 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>42992.78976851852</v>
+        <v>42996.43255787037</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>010031709130000000841009</t>
+          <t>010031709180000000135295</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>5217</v>
+        <v>700</v>
       </c>
       <c r="C276" s="1" t="inlineStr">
         <is>
-          <t>蔡1</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>42991.5824537037</v>
+        <v>42996.41501157408</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>010031709120000009274761</t>
+          <t>010031709150000000639737</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C277" s="1" t="inlineStr">
         <is>
@@ -5373,13 +5373,13 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>42990.86575231481</v>
+        <v>42993.46641203704</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>010031709120000009074205</t>
+          <t>010031709140000002867774</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
@@ -5391,49 +5391,49 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>42990.86173611111</v>
+        <v>42992.78976851852</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>010031709120000007160486</t>
+          <t>010031709130000000841009</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>1000</v>
+        <v>5217</v>
       </c>
       <c r="C279" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>蔡1</t>
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>42992.77072916667</v>
+        <v>42991.5824537037</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>010031709120000007059082</t>
+          <t>010031709120000009274761</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C280" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>42992.77092592593</v>
+        <v>42990.86575231481</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>010031709120000005656019</t>
+          <t>010031709120000009074205</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
@@ -5441,89 +5441,89 @@
       </c>
       <c r="C281" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>42990.66987268518</v>
+        <v>42990.86173611111</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>010031709120000001843103</t>
+          <t>010031709120000007160486</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C282" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>42990.50236111111</v>
+        <v>42992.77072916667</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>010031709080000000955110</t>
+          <t>010031709120000007059082</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C283" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>42986.6455324074</v>
+        <v>42992.77092592593</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>010031709070000002569905</t>
+          <t>010031709120000005656019</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C284" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜1</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>42985.81980324074</v>
+        <v>42990.66987268518</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>010031709070000002463351</t>
+          <t>010031709120000001843103</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C285" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜1</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>42985.79138888889</v>
+        <v>42990.50236111111</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>010031709070000001757454</t>
+          <t>010031709080000000955110</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
@@ -5531,21 +5531,21 @@
       </c>
       <c r="C286" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜1</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>42985.71910879629</v>
+        <v>42986.6455324074</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>010031709070000001254593</t>
+          <t>010031709070000002569905</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C287" s="1" t="inlineStr">
         <is>
@@ -5553,13 +5553,13 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>42985.64912037037</v>
+        <v>42985.81980324074</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>010031709060000004269756</t>
+          <t>010031709070000002463351</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
@@ -5567,17 +5567,17 @@
       </c>
       <c r="C288" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>蔡慧娜1</t>
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>42984.81898148148</v>
+        <v>42985.79138888889</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>010031709060000004169665</t>
+          <t>010031709070000001757454</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
@@ -5585,17 +5585,17 @@
       </c>
       <c r="C289" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>蔡慧娜1</t>
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>42984.80668981482</v>
+        <v>42985.71910879629</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>010031709060000000541073</t>
+          <t>010031709070000001254593</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
@@ -5603,35 +5603,35 @@
       </c>
       <c r="C290" s="1" t="inlineStr">
         <is>
-          <t>金艳霞</t>
+          <t>蔡慧娜1</t>
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>42984.47921296296</v>
+        <v>42985.64912037037</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>010031709050000000660618</t>
+          <t>010031709060000004269756</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C291" s="1" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>42983.70787037037</v>
+        <v>42984.81898148148</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>010031709040000002067384</t>
+          <t>010031709060000004169665</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
@@ -5643,85 +5643,85 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>42982.78296296296</v>
+        <v>42984.80668981482</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>010031709010000001666291</t>
+          <t>010031709060000000541073</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>2522</v>
+        <v>700</v>
       </c>
       <c r="C293" s="1" t="inlineStr">
         <is>
-          <t>cyytest</t>
+          <t>金艳霞</t>
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>42979.80385416667</v>
+        <v>42984.47921296296</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>010031709010000001565703</t>
+          <t>010031709050000000660618</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="C294" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>007</t>
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>42979.76292824074</v>
+        <v>42983.70787037037</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>010031709010000001465127</t>
+          <t>010031709040000002067384</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="C295" s="1" t="inlineStr">
         <is>
-          <t>cyytest</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>42979.76076388889</v>
+        <v>42982.78296296296</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>010031709010000000652110</t>
+          <t>010031709010000001666291</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>700</v>
+        <v>2522</v>
       </c>
       <c r="C296" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>cyytest</t>
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>42979.61085648148</v>
+        <v>42979.80385416667</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>010031708250000003765275</t>
+          <t>010031709010000001565703</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
@@ -5733,13 +5733,13 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>42972.76497685185</v>
+        <v>42979.76292824074</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>010031708250000003664757</t>
+          <t>010031709010000001465127</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
@@ -5747,17 +5747,17 @@
       </c>
       <c r="C298" s="1" t="inlineStr">
         <is>
-          <t>金艳霞</t>
+          <t>cyytest</t>
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>42972.75021990741</v>
+        <v>42979.76076388889</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>010031708250000003560944</t>
+          <t>010031709010000000652110</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
@@ -5769,17 +5769,17 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>42972.70615740741</v>
+        <v>42979.61085648148</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>010031708250000003360406</t>
+          <t>010031708250000003765275</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="C300" s="1" t="inlineStr">
         <is>
@@ -5787,31 +5787,31 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>42972.70380787037</v>
+        <v>42972.76497685185</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>010031708250000003260259</t>
+          <t>010031708250000003664757</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="C301" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>金艳霞</t>
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>42972.69862268519</v>
+        <v>42972.75021990741</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>010031708250000002956301</t>
+          <t>010031708250000003560944</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
@@ -5823,13 +5823,13 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>42972.6550462963</v>
+        <v>42972.70615740741</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>010031708170000000536872</t>
+          <t>010031708250000003360406</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
@@ -5837,17 +5837,17 @@
       </c>
       <c r="C303" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>42964.42819444444</v>
+        <v>42972.70380787037</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>010031708170000000336488</t>
+          <t>010031708250000003260259</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
@@ -5855,53 +5855,53 @@
       </c>
       <c r="C304" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>42964.42318287037</v>
+        <v>42972.69862268519</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>010031708170000000235163</t>
+          <t>010031708250000002956301</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>3700</v>
+        <v>700</v>
       </c>
       <c r="C305" s="1" t="inlineStr">
         <is>
-          <t>蔡慧娜</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>42964.40854166666</v>
+        <v>42972.6550462963</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>010031708090000000655938</t>
+          <t>010031708170000000536872</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="C306" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>42956.64950231482</v>
+        <v>42964.42819444444</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>010031708090000000554066</t>
+          <t>010031708170000000336488</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
@@ -5909,39 +5909,39 @@
       </c>
       <c r="C307" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>42956.62633101852</v>
+        <v>42964.42318287037</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>010031708080000003070013</t>
+          <t>010031708170000000235163</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>700</v>
+        <v>3700</v>
       </c>
       <c r="C308" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>蔡慧娜</t>
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>42955.81456018519</v>
+        <v>42964.40854166666</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>010031708080000001957961</t>
+          <t>010031708090000000655938</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>10300</v>
+        <v>2200</v>
       </c>
       <c r="C309" s="1" t="inlineStr">
         <is>
@@ -5949,103 +5949,103 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>42955.67253472222</v>
+        <v>42956.64950231482</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>010031707280000000466561</t>
+          <t>010031708090000000554066</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>3700</v>
+        <v>700</v>
       </c>
       <c r="C310" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>42944.77113425926</v>
+        <v>42956.62633101852</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>010031707280000000366157</t>
+          <t>010031708080000003070013</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>3700</v>
+        <v>700</v>
       </c>
       <c r="C311" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>42944.76857638889</v>
+        <v>42955.81456018519</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>010031707040000000542384</t>
+          <t>010031708080000001957961</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>700</v>
+        <v>10300</v>
       </c>
       <c r="C312" s="1" t="inlineStr">
         <is>
-          <t>测试II</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>42920.49113425926</v>
+        <v>42955.67253472222</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>010031707040000000241790</t>
+          <t>010031707280000000466561</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>700</v>
+        <v>3700</v>
       </c>
       <c r="C313" s="1" t="inlineStr">
         <is>
-          <t>测试II</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>42920.48662037037</v>
+        <v>42944.77113425926</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>010031707040000000135111</t>
+          <t>010031707280000000366157</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>700</v>
+        <v>3700</v>
       </c>
       <c r="C314" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>42920.4075</v>
+        <v>42944.76857638889</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>010031706250000001257196</t>
+          <t>010031707040000000542384</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
@@ -6053,39 +6053,39 @@
       </c>
       <c r="C315" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>测试II</t>
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>42911.6628125</v>
+        <v>42920.49113425926</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>010031706220000005363787</t>
+          <t>010031707040000000241790</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="C316" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>测试II</t>
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>42908.73903935185</v>
+        <v>42920.48662037037</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>010031706220000003656329</t>
+          <t>010031707040000000135111</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="C317" s="1" t="inlineStr">
         <is>
@@ -6093,13 +6093,13 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>42908.65268518519</v>
+        <v>42920.4075</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>010031706220000001142705</t>
+          <t>010031706250000001257196</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
@@ -6107,39 +6107,39 @@
       </c>
       <c r="C318" s="1" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>42908.49803240741</v>
+        <v>42911.6628125</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>010031706220000000239011</t>
+          <t>010031706220000005363787</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="C319" s="1" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>42908.45365740741</v>
+        <v>42908.73903935185</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>010031706210000001557536</t>
+          <t>010031706220000003656329</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="C320" s="1" t="inlineStr">
         <is>
@@ -6147,53 +6147,53 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>42907.66831018519</v>
+        <v>42908.65268518519</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>010031706200000005376319</t>
+          <t>010031706220000001142705</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>29900</v>
+        <v>700</v>
       </c>
       <c r="C321" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>42906.88613425926</v>
+        <v>42908.49803240741</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>010031706200000005173595</t>
+          <t>010031706220000000239011</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>7000</v>
+        <v>700</v>
       </c>
       <c r="C322" s="1" t="inlineStr">
         <is>
-          <t>测试II</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>42906.85303240741</v>
+        <v>42908.45365740741</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>010031706200000001644821</t>
+          <t>010031706210000001557536</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="C323" s="1" t="inlineStr">
         <is>
@@ -6201,17 +6201,17 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>42906.52103009259</v>
+        <v>42907.66831018519</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>010031706200000001542468</t>
+          <t>010031706200000005376319</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>2200</v>
+        <v>29900</v>
       </c>
       <c r="C324" s="1" t="inlineStr">
         <is>
@@ -6219,125 +6219,125 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>42906.51743055556</v>
+        <v>42906.88613425926</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>010031706200000000433230</t>
+          <t>010031706200000005173595</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>5700</v>
+        <v>7000</v>
       </c>
       <c r="C325" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>测试II</t>
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>42906.38641203703</v>
+        <v>42906.85303240741</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>010031706190000000761204</t>
+          <t>010031706200000001644821</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>370000</v>
+        <v>700</v>
       </c>
       <c r="C326" s="1" t="inlineStr">
         <is>
-          <t>测试II</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>42905.7106712963</v>
+        <v>42906.52103009259</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>010031706190000000459478</t>
+          <t>010031706200000001542468</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="C327" s="1" t="inlineStr">
         <is>
-          <t>罗治豪</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>42905.69186342593</v>
+        <v>42906.51743055556</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>010031705030000000362089</t>
+          <t>010031706200000000433230</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>700</v>
+        <v>5700</v>
       </c>
       <c r="C328" s="1" t="inlineStr">
         <is>
-          <t>ybl</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>42914.4665625</v>
+        <v>42906.38641203703</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>010031704280000001762947</t>
+          <t>010031706190000000761204</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>700</v>
+        <v>370000</v>
       </c>
       <c r="C329" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>测试II</t>
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>42853.73229166667</v>
+        <v>42905.7106712963</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>010031704280000001360916</t>
+          <t>010031706190000000459478</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>1010</v>
+        <v>1400</v>
       </c>
       <c r="C330" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>罗治豪</t>
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>42853.70706018519</v>
+        <v>42905.69186342593</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>010031704280000001260606</t>
+          <t>010031705030000000362089</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>1220</v>
+        <v>700</v>
       </c>
       <c r="C331" s="1" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>42853.70457175926</v>
+        <v>42914.4665625</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>010031704280000000135050</t>
+          <t>010031704280000001762947</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
@@ -6363,17 +6363,17 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>42853.410625</v>
+        <v>42853.73229166667</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>010031704260000000134793</t>
+          <t>010031704280000001360916</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>700</v>
+        <v>1010</v>
       </c>
       <c r="C333" s="1" t="inlineStr">
         <is>
@@ -6381,17 +6381,17 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>42851.40446759259</v>
+        <v>42853.70706018519</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>010031704250000001038164</t>
+          <t>010031704280000001260606</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>700</v>
+        <v>1220</v>
       </c>
       <c r="C334" s="1" t="inlineStr">
         <is>
@@ -6399,31 +6399,31 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>42850.44809027778</v>
+        <v>42853.70457175926</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>010031704240000005168032</t>
+          <t>010031704280000000135050</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="C335" s="1" t="inlineStr">
         <is>
-          <t>贰零</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>42849.79009259259</v>
+        <v>42853.410625</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>010031704240000001251721</t>
+          <t>010031704260000000134793</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
@@ -6431,17 +6431,17 @@
       </c>
       <c r="C336" s="1" t="inlineStr">
         <is>
-          <t>罗治豪</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>42849.59993055555</v>
+        <v>42851.40446759259</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>010031704240000001043507</t>
+          <t>010031704250000001038164</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
@@ -6449,35 +6449,35 @@
       </c>
       <c r="C337" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>ybl</t>
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>42849.50560185185</v>
+        <v>42850.44809027778</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>010031704180000002273513</t>
+          <t>010031704240000005168032</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="C338" s="1" t="inlineStr">
         <is>
-          <t>测试II</t>
+          <t>贰零</t>
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>42843.85891203704</v>
+        <v>42849.79009259259</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>010031704070000003165804</t>
+          <t>010031704240000001251721</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
@@ -6485,21 +6485,21 @@
       </c>
       <c r="C339" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>罗治豪</t>
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>42832.77271990741</v>
+        <v>42849.59993055555</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>010031704070000002762910</t>
+          <t>010031704240000001043507</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="C340" s="1" t="inlineStr">
         <is>
@@ -6507,31 +6507,31 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>42832.74966435185</v>
+        <v>42849.50560185185</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>010031704070000002360529</t>
+          <t>010031704180000002273513</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="C341" s="1" t="inlineStr">
         <is>
-          <t>罗治豪</t>
+          <t>测试II</t>
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>42832.70131944444</v>
+        <v>42843.85891203704</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>010031704070000002057803</t>
+          <t>010031704070000003165804</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
@@ -6539,21 +6539,21 @@
       </c>
       <c r="C342" s="1" t="inlineStr">
         <is>
-          <t>罗治豪</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>42832.67074074074</v>
+        <v>42832.77271990741</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>010031704070000001054019</t>
+          <t>010031704070000002762910</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="C343" s="1" t="inlineStr">
         <is>
@@ -6561,31 +6561,31 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>42832.62616898148</v>
+        <v>42832.74966435185</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>010031704070000000953780</t>
+          <t>010031704070000002360529</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="C344" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>罗治豪</t>
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>42832.62461805555</v>
+        <v>42832.70131944444</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>010031704060000003659290</t>
+          <t>010031704070000002057803</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>42831.6907175926</v>
+        <v>42832.67074074074</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>010031704060000003055308</t>
+          <t>010031704070000001054019</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="C346" s="1" t="inlineStr">
         <is>
-          <t>罗治豪</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>42831.64105324074</v>
+        <v>42832.62616898148</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>010031704060000002854211</t>
+          <t>010031704070000000953780</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="C347" s="1" t="inlineStr">
         <is>
-          <t>罗治豪</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>42831.62834490741</v>
+        <v>42832.62461805555</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>010031704060000002754057</t>
+          <t>010031704060000003659290</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
@@ -6651,13 +6651,13 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>42831.62666666666</v>
+        <v>42831.6907175926</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>010031704060000002653165</t>
+          <t>010031704060000003055308</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
@@ -6669,13 +6669,13 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>42831.62429398148</v>
+        <v>42831.64105324074</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>010031704060000002251512</t>
+          <t>010031704060000002854211</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
@@ -6687,107 +6687,107 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>42831.60393518519</v>
+        <v>42831.62834490741</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>010031704060000000641243</t>
+          <t>010031704060000002754057</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="C351" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>罗治豪</t>
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>42831.47815972222</v>
+        <v>42831.62666666666</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>010031704060000000238248</t>
+          <t>010031704060000002653165</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="C352" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>罗治豪</t>
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>42831.4468287037</v>
+        <v>42831.62429398148</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>010031704050000003566529</t>
+          <t>010031704060000002251512</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>1900</v>
+        <v>700</v>
       </c>
       <c r="C353" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>罗治豪</t>
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>42830.77179398148</v>
+        <v>42831.60393518519</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>010031704050000003164121</t>
+          <t>010031704060000000641243</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>1900</v>
+        <v>1100</v>
       </c>
       <c r="C354" s="1" t="inlineStr">
         <is>
-          <t>罗治豪</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>42830.74398148148</v>
+        <v>42831.47815972222</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>010031704050000001756436</t>
+          <t>010031704060000000238248</t>
         </is>
       </c>
       <c r="B355" s="1" t="n">
-        <v>6040</v>
+        <v>1400</v>
       </c>
       <c r="C355" s="1" t="inlineStr">
         <is>
-          <t>罗治豪</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>42830.65538194445</v>
+        <v>42831.4468287037</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>010031704050000001553301</t>
+          <t>010031704050000003566529</t>
         </is>
       </c>
       <c r="B356" s="1" t="n">
-        <v>5080</v>
+        <v>1900</v>
       </c>
       <c r="C356" s="1" t="inlineStr">
         <is>
@@ -6795,85 +6795,85 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>42830.61930555556</v>
+        <v>42830.77179398148</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>010031704050000000646463</t>
+          <t>010031704050000003164121</t>
         </is>
       </c>
       <c r="B357" s="1" t="n">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="C357" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>罗治豪</t>
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>42830.53967592592</v>
+        <v>42830.74398148148</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>010031704050000000239225</t>
+          <t>010031704050000001756436</t>
         </is>
       </c>
       <c r="B358" s="1" t="n">
-        <v>1100</v>
+        <v>6040</v>
       </c>
       <c r="C358" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>罗治豪</t>
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>42830.4567824074</v>
+        <v>42830.65538194445</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>010031703310000011953244</t>
+          <t>010031704050000001553301</t>
         </is>
       </c>
       <c r="B359" s="1" t="n">
-        <v>700</v>
+        <v>5080</v>
       </c>
       <c r="C359" s="1" t="inlineStr">
         <is>
-          <t>贰零</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>42825.64174768519</v>
+        <v>42830.61930555556</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>010031703300000008979842</t>
+          <t>010031704050000000646463</t>
         </is>
       </c>
       <c r="B360" s="1" t="n">
-        <v>2830</v>
+        <v>1100</v>
       </c>
       <c r="C360" s="1" t="inlineStr">
         <is>
-          <t>贰零</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>42824.94980324074</v>
+        <v>42830.53967592592</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>010031703300000003759355</t>
+          <t>010031704050000000239225</t>
         </is>
       </c>
       <c r="B361" s="1" t="n">
@@ -6881,17 +6881,17 @@
       </c>
       <c r="C361" s="1" t="inlineStr">
         <is>
-          <t>金艳霞</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>42824.6878125</v>
+        <v>42830.4567824074</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>010031703280000004962608</t>
+          <t>010031703310000011953244</t>
         </is>
       </c>
       <c r="B362" s="1" t="n">
@@ -6899,53 +6899,53 @@
       </c>
       <c r="C362" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>贰零</t>
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>42822.72902777778</v>
+        <v>42825.64174768519</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>010031703280000004561469</t>
+          <t>010031703300000008979842</t>
         </is>
       </c>
       <c r="B363" s="1" t="n">
-        <v>700</v>
+        <v>2830</v>
       </c>
       <c r="C363" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>贰零</t>
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>42822.71390046296</v>
+        <v>42824.94980324074</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>010031703280000003659055</t>
+          <t>010031703300000003759355</t>
         </is>
       </c>
       <c r="B364" s="1" t="n">
-        <v>7540</v>
+        <v>1100</v>
       </c>
       <c r="C364" s="1" t="inlineStr">
         <is>
-          <t>蔡莹盈</t>
+          <t>金艳霞</t>
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>42822.68858796296</v>
+        <v>42824.6878125</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>010031703280000003557874</t>
+          <t>010031703280000004962608</t>
         </is>
       </c>
       <c r="B365" s="1" t="n">
@@ -6957,53 +6957,53 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>42822.67418981482</v>
+        <v>42822.72902777778</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>010031703280000003457199</t>
+          <t>010031703280000004561469</t>
         </is>
       </c>
       <c r="B366" s="1" t="n">
-        <v>2600</v>
+        <v>700</v>
       </c>
       <c r="C366" s="1" t="inlineStr">
         <is>
-          <t>cyytest</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>42822.66414351852</v>
+        <v>42822.71390046296</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>010031703280000003256211</t>
+          <t>010031703280000003659055</t>
         </is>
       </c>
       <c r="B367" s="1" t="n">
-        <v>4040</v>
+        <v>7540</v>
       </c>
       <c r="C367" s="1" t="inlineStr">
         <is>
-          <t>cyytest</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>42822.65560185185</v>
+        <v>42822.68858796296</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>010031703280000002540504</t>
+          <t>010031703280000003557874</t>
         </is>
       </c>
       <c r="B368" s="1" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="C368" s="1" t="inlineStr">
         <is>
@@ -7011,107 +7011,107 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>42822.47762731482</v>
+        <v>42822.67418981482</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>010031703210000003272433</t>
+          <t>010031703280000003457199</t>
         </is>
       </c>
       <c r="B369" s="1" t="n">
-        <v>700</v>
+        <v>2600</v>
       </c>
       <c r="C369" s="1" t="inlineStr">
         <is>
-          <t>罗治豪</t>
+          <t>cyytest</t>
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>42815.83943287037</v>
+        <v>42822.66414351852</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>010031703210000001757929</t>
+          <t>010031703280000003256211</t>
         </is>
       </c>
       <c r="B370" s="1" t="n">
-        <v>7690</v>
+        <v>4040</v>
       </c>
       <c r="C370" s="1" t="inlineStr">
         <is>
-          <t>贰零</t>
+          <t>cyytest</t>
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>42815.82387731481</v>
+        <v>42822.65560185185</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>010031703210000001657713</t>
+          <t>010031703280000002540504</t>
         </is>
       </c>
       <c r="B371" s="1" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="C371" s="1" t="inlineStr">
         <is>
-          <t>贰零</t>
+          <t>蔡莹盈</t>
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>42815.66929398148</v>
+        <v>42822.47762731482</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>010031703210000001453982</t>
+          <t>010031703210000003272433</t>
         </is>
       </c>
       <c r="B372" s="1" t="n">
-        <v>4040</v>
+        <v>700</v>
       </c>
       <c r="C372" s="1" t="inlineStr">
         <is>
-          <t>唐思远</t>
+          <t>罗治豪</t>
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>42815.62729166666</v>
+        <v>42815.83943287037</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>010031703210000001353203</t>
+          <t>010031703210000001757929</t>
         </is>
       </c>
       <c r="B373" s="1" t="n">
-        <v>3580</v>
+        <v>7690</v>
       </c>
       <c r="C373" s="1" t="inlineStr">
         <is>
-          <t>唐思远</t>
+          <t>贰零</t>
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>42815.62107638889</v>
+        <v>42815.82387731481</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>010031703180000004973788</t>
+          <t>010031703210000001657713</t>
         </is>
       </c>
       <c r="B374" s="1" t="n">
-        <v>3700</v>
+        <v>700</v>
       </c>
       <c r="C374" s="1" t="inlineStr">
         <is>
@@ -7119,85 +7119,85 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>42812.85483796296</v>
+        <v>42815.66929398148</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>010031703180000003065322</t>
+          <t>010031703210000001453982</t>
         </is>
       </c>
       <c r="B375" s="1" t="n">
-        <v>4700</v>
+        <v>4040</v>
       </c>
       <c r="C375" s="1" t="inlineStr">
         <is>
-          <t>贰零</t>
+          <t>唐思远</t>
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>42812.75865740741</v>
+        <v>42815.62729166666</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>010031703180000001755152</t>
+          <t>010031703210000001353203</t>
         </is>
       </c>
       <c r="B376" s="1" t="n">
-        <v>700</v>
+        <v>3580</v>
       </c>
       <c r="C376" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>唐思远</t>
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>42812.63979166667</v>
+        <v>42815.62107638889</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>010031703180000001655024</t>
+          <t>010031703180000004973788</t>
         </is>
       </c>
       <c r="B377" s="1" t="n">
-        <v>700</v>
+        <v>3700</v>
       </c>
       <c r="C377" s="1" t="inlineStr">
         <is>
-          <t>罗治豪</t>
+          <t>贰零</t>
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>42812.63755787037</v>
+        <v>42812.85483796296</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>010031703180000001454669</t>
+          <t>010031703180000003065322</t>
         </is>
       </c>
       <c r="B378" s="1" t="n">
-        <v>700</v>
+        <v>4700</v>
       </c>
       <c r="C378" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>贰零</t>
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>42812.63405092592</v>
+        <v>42812.75865740741</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>010031703180000001354473</t>
+          <t>010031703180000001755152</t>
         </is>
       </c>
       <c r="B379" s="1" t="n">
@@ -7205,17 +7205,17 @@
       </c>
       <c r="C379" s="1" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>42812.63174768518</v>
+        <v>42812.63979166667</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>010031703180000001254220</t>
+          <t>010031703180000001655024</t>
         </is>
       </c>
       <c r="B380" s="1" t="n">
@@ -7223,57 +7223,57 @@
       </c>
       <c r="C380" s="1" t="inlineStr">
         <is>
-          <t>贰零</t>
+          <t>罗治豪</t>
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>42812.62873842593</v>
+        <v>42812.63755787037</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>010031703180000001053958</t>
+          <t>010031703180000001454669</t>
         </is>
       </c>
       <c r="B381" s="1" t="n">
-        <v>1400</v>
+        <v>700</v>
       </c>
       <c r="C381" s="1" t="inlineStr">
         <is>
-          <t>贰零</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>42812.62586805555</v>
+        <v>42812.63405092592</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>010031703180000000651957</t>
+          <t>010031703180000001354473</t>
         </is>
       </c>
       <c r="B382" s="1" t="n">
-        <v>2200</v>
+        <v>700</v>
       </c>
       <c r="C382" s="1" t="inlineStr">
         <is>
-          <t>贰零</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>42812.61422453704</v>
+        <v>42812.63174768518</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>010031703170000003254645</t>
+          <t>010031703180000001254220</t>
         </is>
       </c>
       <c r="B383" s="1" t="n">
-        <v>6700</v>
+        <v>700</v>
       </c>
       <c r="C383" s="1" t="inlineStr">
         <is>
@@ -7281,17 +7281,17 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>42811.65748842592</v>
+        <v>42812.62873842593</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>010031703160000003674490</t>
+          <t>010031703180000001053958</t>
         </is>
       </c>
       <c r="B384" s="1" t="n">
-        <v>6560</v>
+        <v>1400</v>
       </c>
       <c r="C384" s="1" t="inlineStr">
         <is>
@@ -7299,17 +7299,17 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>42810.88006944444</v>
+        <v>42812.62586805555</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>010031703160000003272970</t>
+          <t>010031703180000000651957</t>
         </is>
       </c>
       <c r="B385" s="1" t="n">
-        <v>7700</v>
+        <v>2200</v>
       </c>
       <c r="C385" s="1" t="inlineStr">
         <is>
@@ -7317,67 +7317,67 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>42811.43568287037</v>
+        <v>42812.61422453704</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>010031703160000002264630</t>
+          <t>010031703170000003254645</t>
         </is>
       </c>
       <c r="B386" s="1" t="n">
-        <v>700</v>
+        <v>6700</v>
       </c>
       <c r="C386" s="1" t="inlineStr">
         <is>
-          <t>罗治豪</t>
+          <t>贰零</t>
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>42810.74881944444</v>
+        <v>42811.65748842592</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>010031703160000002163416</t>
+          <t>010031703160000003674490</t>
         </is>
       </c>
       <c r="B387" s="1" t="n">
-        <v>700</v>
+        <v>6560</v>
       </c>
       <c r="C387" s="1" t="inlineStr">
         <is>
-          <t>杨明</t>
+          <t>贰零</t>
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>42810.73567129629</v>
+        <v>42810.88006944444</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>010031703160000001660031</t>
+          <t>010031703160000003272970</t>
         </is>
       </c>
       <c r="B388" s="1" t="n">
-        <v>700</v>
+        <v>7700</v>
       </c>
       <c r="C388" s="1" t="inlineStr">
         <is>
-          <t>罗治豪</t>
+          <t>贰零</t>
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>42810.69740740741</v>
+        <v>42811.43568287037</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>010031703160000001558667</t>
+          <t>010031703160000002264630</t>
         </is>
       </c>
       <c r="B389" s="1" t="n">
@@ -7385,35 +7385,35 @@
       </c>
       <c r="C389" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>罗治豪</t>
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>42810.67997685185</v>
+        <v>42810.74881944444</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>010031703160000000555226</t>
+          <t>010031703160000002163416</t>
         </is>
       </c>
       <c r="B390" s="1" t="n">
-        <v>6200</v>
+        <v>700</v>
       </c>
       <c r="C390" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>杨明</t>
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>42810.64160879629</v>
+        <v>42810.73567129629</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>010031703160000000454868</t>
+          <t>010031703160000001660031</t>
         </is>
       </c>
       <c r="B391" s="1" t="n">
@@ -7421,17 +7421,17 @@
       </c>
       <c r="C391" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>罗治豪</t>
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>42810.63858796296</v>
+        <v>42810.69740740741</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>010031703150000002155004</t>
+          <t>010031703160000001558667</t>
         </is>
       </c>
       <c r="B392" s="1" t="n">
@@ -7439,35 +7439,35 @@
       </c>
       <c r="C392" s="1" t="inlineStr">
         <is>
-          <t>罗治豪</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>42809.6377199074</v>
+        <v>42810.67997685185</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>010031703150000002053172</t>
+          <t>010031703160000000555226</t>
         </is>
       </c>
       <c r="B393" s="1" t="n">
-        <v>700</v>
+        <v>6200</v>
       </c>
       <c r="C393" s="1" t="inlineStr">
         <is>
-          <t>罗治豪</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>42810.66501157408</v>
+        <v>42810.64160879629</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>010031703150000001752690</t>
+          <t>010031703160000000454868</t>
         </is>
       </c>
       <c r="B394" s="1" t="n">
@@ -7475,17 +7475,17 @@
       </c>
       <c r="C394" s="1" t="inlineStr">
         <is>
-          <t>罗治豪</t>
+          <t>黄诗旻</t>
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>42809.61038194445</v>
+        <v>42810.63858796296</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>010031703150000001552535</t>
+          <t>010031703150000002155004</t>
         </is>
       </c>
       <c r="B395" s="1" t="n">
@@ -7497,13 +7497,13 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>42809.60847222222</v>
+        <v>42809.6377199074</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>010031703150000001351620</t>
+          <t>010031703150000002053172</t>
         </is>
       </c>
       <c r="B396" s="1" t="n">
@@ -7515,71 +7515,71 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>42809.5994212963</v>
+        <v>42810.66501157408</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>010031703130000007266721</t>
+          <t>010031703150000001752690</t>
         </is>
       </c>
       <c r="B397" s="1" t="n">
-        <v>3200</v>
+        <v>700</v>
       </c>
       <c r="C397" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>罗治豪</t>
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>42807.77451388889</v>
+        <v>42809.61038194445</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>010031703130000007163680</t>
+          <t>010031703150000001552535</t>
         </is>
       </c>
       <c r="B398" s="1" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="C398" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>罗治豪</t>
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>42807.74054398148</v>
+        <v>42809.60847222222</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>010031703130000007063197</t>
+          <t>010031703150000001351620</t>
         </is>
       </c>
       <c r="B399" s="1" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="C399" s="1" t="inlineStr">
         <is>
-          <t>黄诗旻</t>
+          <t>罗治豪</t>
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>42807.73496527778</v>
+        <v>42809.5994212963</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>010031703130000006762036</t>
+          <t>010031703130000007266721</t>
         </is>
       </c>
       <c r="B400" s="1" t="n">
-        <v>9700</v>
+        <v>3200</v>
       </c>
       <c r="C400" s="1" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>42807.77016203704</v>
+        <v>42807.77451388889</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>010031703130000006661935</t>
+          <t>010031703130000007163680</t>
         </is>
       </c>
       <c r="B401" s="1" t="n">
@@ -7605,13 +7605,13 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>42807.71748842593</v>
+        <v>42807.74054398148</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>010031703130000006460689</t>
+          <t>010031703130000007063197</t>
         </is>
       </c>
       <c r="B402" s="1" t="n">
@@ -7623,17 +7623,17 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>42807.70480324074</v>
+        <v>42807.73496527778</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>010031703130000006360514</t>
+          <t>010031703130000006762036</t>
         </is>
       </c>
       <c r="B403" s="1" t="n">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="C403" s="1" t="inlineStr">
         <is>
@@ -7641,17 +7641,17 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>42807.70070601852</v>
+        <v>42807.77016203704</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>010031703130000006258633</t>
+          <t>010031703130000006661935</t>
         </is>
       </c>
       <c r="B404" s="1" t="n">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="C404" s="1" t="inlineStr">
         <is>
@@ -7659,13 +7659,13 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>42807.69384259259</v>
+        <v>42807.71748842593</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>010031703130000004050763</t>
+          <t>010031703130000006460689</t>
         </is>
       </c>
       <c r="B405" s="1" t="n">
@@ -7673,10 +7673,64 @@
       </c>
       <c r="C405" s="1" t="inlineStr">
         <is>
+          <t>黄诗旻</t>
+        </is>
+      </c>
+      <c r="D405" s="2" t="n">
+        <v>42807.70480324074</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>010031703130000006360514</t>
+        </is>
+      </c>
+      <c r="B406" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C406" s="1" t="inlineStr">
+        <is>
+          <t>黄诗旻</t>
+        </is>
+      </c>
+      <c r="D406" s="2" t="n">
+        <v>42807.70070601852</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>010031703130000006258633</t>
+        </is>
+      </c>
+      <c r="B407" s="1" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C407" s="1" t="inlineStr">
+        <is>
+          <t>黄诗旻</t>
+        </is>
+      </c>
+      <c r="D407" s="2" t="n">
+        <v>42807.69384259259</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>010031703130000004050763</t>
+        </is>
+      </c>
+      <c r="B408" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C408" s="1" t="inlineStr">
+        <is>
           <t>罗治豪</t>
         </is>
       </c>
-      <c r="D405" s="2" t="n">
+      <c r="D408" s="2" t="n">
         <v>42807.58765046296</v>
       </c>
     </row>
